--- a/process_data/part3_happiness.xlsx
+++ b/process_data/part3_happiness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/final_stat_pant/process_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB25A65D-5769-7643-9CBF-82E76D0C2844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64259A8A-CB98-2240-BA31-13ADB08F833E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31760" yWindow="5780" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{A6DFE1E2-F8C5-594E-BC88-B571F91F2B3D}"/>
+    <workbookView xWindow="16940" yWindow="2600" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{A6DFE1E2-F8C5-594E-BC88-B571F91F2B3D}"/>
   </bookViews>
   <sheets>
     <sheet name="TrainData" sheetId="1" r:id="rId1"/>
@@ -26189,7 +26189,7 @@
   <dimension ref="A1:U144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U144"/>
+      <selection sqref="A1:U144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34852,7 +34852,7 @@
   <dimension ref="A1:U558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
